--- a/AUTO-IMG_20180424_195216.pdf.xlsx
+++ b/AUTO-IMG_20180424_195216.pdf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashishranjan/Desktop/GIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashishranjan/Desktop/GIT/git-hub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1C9DB-697F-FC44-BAA2-7AD1E4AFDCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116C19D4-9B9D-6F40-99AF-780DF43635E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37240" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -698,927 +698,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFA3A5A5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>orr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pondence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">om </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CSSTEAP and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ESCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C2C (issue of admis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>le</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>er</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">for travel, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>enqu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">etc) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>prospec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ppli</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>wi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>llb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>an</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">d </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>som</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>meso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>np</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>me</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Offi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">therefore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kindly </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ensu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>l-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hone,fax, etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>are co</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rectlyand clearly </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>io</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>(P</t>
     </r>
     <r>
@@ -3950,554 +3029,6 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3332265522</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF8E9090"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rece</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Middle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF8E9090"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFB3B5B5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>..</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>mo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>her/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF8E9090"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.sfsfsdfsf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">15184665
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.ersadtas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF757777"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.7.   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0C0E0F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF3D413F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF2A2D2D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF565959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
     </r>
   </si>
   <si>
@@ -4953,6 +3484,1484 @@
       </rPr>
       <t>Dehradun
 and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3332265522</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF8E9090"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rece</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA3A5A5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>orr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pondence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">om </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CSSTEAP and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ESCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C2C (issue of admis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">for travel, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>enqu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">etc) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prospec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ppli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>llb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>som</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>meso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Offi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">therefore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kindly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>etertensu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hone,fax, etc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>are co</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rectlyand clearly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>io</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Middle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF8E9090"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB3B5B5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>her/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF8E9090"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">..ertet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.sfsfsdfsf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">15184665
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.ersadtas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF757777"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.7.   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0C0E0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3D413F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF2A2D2D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF565959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
     </r>
   </si>
 </sst>
@@ -5534,41 +5543,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="17"/>
@@ -5591,10 +5576,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5603,14 +5588,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6095,7 +6104,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -6115,87 +6124,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="85" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="29" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="73.5" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>17</v>
+      <c r="A3" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="8.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="5.5" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="29.5" customHeight="1">
@@ -6208,15 +6217,15 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6224,8 +6233,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1">
@@ -6238,31 +6247,31 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="23.5" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>14</v>
+      <c r="A9" s="17" t="s">
+        <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="6" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -6274,118 +6283,108 @@
     </row>
     <row r="11" spans="1:12" ht="38.25" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="25" t="s">
-        <v>7</v>
+      <c r="B11" s="30" t="s">
+        <v>16</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:12" ht="120" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="120" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>16</v>
+      <c r="G14" s="27" t="s">
+        <v>17</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" ht="156.5" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="156.5" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:12" ht="92.5" customHeight="1">
+      <c r="A16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="92.5" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="J5:K9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="B11:K11"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A12:L12"/>
@@ -6393,6 +6392,16 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="J5:K9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
